--- a/posts/psycho_phys_graphs/tri_hearts.xlsx
+++ b/posts/psycho_phys_graphs/tri_hearts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c8ea0e04da9d5f3/Desktop/semester_spring_2024/reu_journal/cmiller_reu_presentation/cm_nsf_reu_didactics/posts/psycho_phys_graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{47200311-C186-435F-B92B-FE47A03C6FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A554089-1A15-45DA-9A38-DCC657C52065}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{47200311-C186-435F-B92B-FE47A03C6FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B73B9D7-1786-4CFD-9CFC-2C99093E0B3B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{563585E2-09E4-4A55-B1DD-A74F9EFE1B29}"/>
   </bookViews>
@@ -44,12 +44,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
     <t>SE</t>
   </si>
   <si>
@@ -60,6 +54,12 @@
   </si>
   <si>
     <t>Lowest 25 %</t>
+  </si>
+  <si>
+    <t>Mean Discontinuity Score</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
   </si>
 </sst>
 </file>
@@ -113,6 +113,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,15 +439,17 @@
   <dimension ref="H12:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="8:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H12" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,18 +457,18 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K12" s="1" t="s">
+    </row>
+    <row r="13" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H13" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="8:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H13" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="I13" s="1">
         <v>153</v>
@@ -477,9 +483,9 @@
         <v>8.8200000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="8:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H14" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I14" s="1">
         <v>77</v>
@@ -494,9 +500,9 @@
         <v>0.13159999999999999</v>
       </c>
     </row>
-    <row r="15" spans="8:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I15" s="1">
         <v>77</v>

--- a/posts/psycho_phys_graphs/tri_hearts.xlsx
+++ b/posts/psycho_phys_graphs/tri_hearts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c8ea0e04da9d5f3/Desktop/semester_spring_2024/reu_journal/cmiller_reu_presentation/cm_nsf_reu_didactics/posts/psycho_phys_graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{47200311-C186-435F-B92B-FE47A03C6FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B73B9D7-1786-4CFD-9CFC-2C99093E0B3B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{4C5E385E-A84E-4870-A268-7809CFEA74F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{563585E2-09E4-4A55-B1DD-A74F9EFE1B29}"/>
   </bookViews>
@@ -44,6 +44,9 @@
     <t>N</t>
   </si>
   <si>
+    <t>SD</t>
+  </si>
+  <si>
     <t>SE</t>
   </si>
   <si>
@@ -57,18 +60,33 @@
   </si>
   <si>
     <t>Mean Discontinuity Score</t>
-  </si>
-  <si>
-    <t>Standard Deviation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -83,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -91,19 +109,162 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -113,10 +274,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,88 +593,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D474BA7-7B81-4277-9982-6044DF3D1D0D}">
-  <dimension ref="H12:L15"/>
+  <dimension ref="J2:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H12" s="1" t="s">
+    <row r="2" spans="10:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="10:14" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="K3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="L3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="10:14" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="6">
+        <v>149</v>
+      </c>
+      <c r="L4" s="6">
+        <v>-1.5299999999999999E-2</v>
+      </c>
+      <c r="M4" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N4" s="7">
+        <v>9.01E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="10:14" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="8">
+        <v>75</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0.1263</v>
+      </c>
+      <c r="M5" s="8">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0.13439999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="10:14" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="1">
-        <v>153</v>
-      </c>
-      <c r="J13" s="1">
-        <v>-1.8800000000000001E-2</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="L13" s="1">
-        <v>8.8200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="1">
-        <v>77</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.1452</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0.13159999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="1">
-        <v>77</v>
-      </c>
-      <c r="J15" s="1">
-        <v>-0.18490000000000001</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1.43</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0.16300000000000001</v>
+      <c r="K6" s="10">
+        <v>76</v>
+      </c>
+      <c r="L6" s="10">
+        <v>-0.18740000000000001</v>
+      </c>
+      <c r="M6" s="10">
+        <v>1.44</v>
+      </c>
+      <c r="N6" s="11">
+        <v>0.1651</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>